--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IK-LPC-020\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683804D8-20E3-4BCA-BB18-42C2F01AAEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5796D4-384A-4513-8345-92CC60385FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
+    <sheet name="ShaderProgram" sheetId="2" r:id="rId2"/>
+    <sheet name="DepthStencilState" sheetId="5" r:id="rId3"/>
+    <sheet name="RasterizerState" sheetId="3" r:id="rId4"/>
+    <sheet name="BlendState" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +37,299 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+  <si>
+    <t>../PipelineStateTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepthDesc : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StencilDesc : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RasterizerDesc : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendDesc : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimitiveTopology : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewport : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scissors : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-1000-000000000000</t>
+  </si>
+  <si>
+    <t>ShaderProgram : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pixel : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometry : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hull : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../RasterizerStateTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FillMode : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CullMode : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstantFactor : Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlopeFactor : Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp : Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontCCW : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepthClampEnabled : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScissorTestEnabled : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiSampleEnabled : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AntiAliasedLineEnabled : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConservativeRasterization : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../DepthStencilStateTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepthEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteEnabled : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompareOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StencilEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadMask : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteMask : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front/StencilFailOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front/DepthFailOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front/DepthPassOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front/CompareOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back/StencilFailOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back/DepthFailOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back/DepthPassOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back/CompareOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../BlendStateTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaToCoverageEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndependentBlendEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SrcBlend : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestBlend : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SrcBlendAlpha : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestBlendAlpha : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendOpAlpha : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderTargetWriteMask : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendFactor : Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleMask : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendFactorDynamic : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-2000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriangleList</t>
+  </si>
+  <si>
+    <t>../ShaderProgramTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,15 +373,112 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -97,10 +491,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}" name="표1" displayName="표1" ref="A2:I12" totalsRowShown="0">
+  <autoFilter ref="A2:I12" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5C9F5DAC-CB30-40DD-9212-D854B9BBC39F}" name="UUID : String"/>
+    <tableColumn id="2" xr3:uid="{57D9BF7E-4489-483A-ACDD-F154D61BC663}" name="ShaderProgram : String"/>
+    <tableColumn id="3" xr3:uid="{5A77B412-D4DC-4198-95FC-7A946B219A2E}" name="PrimitiveTopology : String"/>
+    <tableColumn id="4" xr3:uid="{9A3A3AFF-BB48-4AD6-B072-914E3A1014F7}" name="Viewport : Array"/>
+    <tableColumn id="5" xr3:uid="{3E478F68-E33F-4EAA-91F4-F957385462DC}" name="Scissors : Array"/>
+    <tableColumn id="6" xr3:uid="{78739EBB-19B7-4EBC-B977-4A6E588A82A7}" name="DepthDesc : String"/>
+    <tableColumn id="7" xr3:uid="{3B5E36EC-3157-4AF2-9061-CF9D63CFFBF4}" name="StencilDesc : String"/>
+    <tableColumn id="8" xr3:uid="{C1B62DE7-D042-4C6E-927A-479024BDA56F}" name="RasterizerDesc : String"/>
+    <tableColumn id="9" xr3:uid="{2771A842-B37F-4D56-8CE0-E9C086C5F7A7}" name="BlendDesc : String"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}" name="표2" displayName="표2" ref="A2:G6" totalsRowShown="0">
+  <autoFilter ref="A2:G6" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E179A3F3-F267-42A3-8D7C-10D95D6E7C88}" name="UUID : String"/>
+    <tableColumn id="2" xr3:uid="{37C18820-78B7-454B-9AA8-AB44AD1FAFF0}" name="Vertex : String"/>
+    <tableColumn id="3" xr3:uid="{179A43CE-AB61-4317-843A-B16009BF9B68}" name="Pixel : String"/>
+    <tableColumn id="4" xr3:uid="{EA23D863-C047-49D6-BA56-886B569607D8}" name="Geometry : String"/>
+    <tableColumn id="5" xr3:uid="{CF4AD72B-89CF-4807-84D2-E0AA59718470}" name="Hull : String"/>
+    <tableColumn id="6" xr3:uid="{73F01463-C955-480B-A39F-DF1C3A9B8887}" name="Domain : String"/>
+    <tableColumn id="7" xr3:uid="{FCBFF0CD-9D46-43CF-96E0-7599FD6BAF9B}" name="Compute : String"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}" name="표1_5" displayName="표1_5" ref="A2:O14" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A2:O14" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{69AECB34-9285-4C9C-A6A5-7187F80EDC6C}" name="UUID : String" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{639E1F39-A409-4C56-A4D3-560A783D00F2}" name="DepthEnable : Bool" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{538777F6-C1D4-47F6-829B-ED423921FE43}" name="WriteEnabled : Bool" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{C1628ACE-49F2-4E18-B79E-30EA8CF48F42}" name="CompareOp : String" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{08350EA4-84C5-4749-A265-5DF7AB8E647C}" name="StencilEnable : Bool" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{BF3FB076-37A7-4DA1-A555-85554A532095}" name="ReadMask : Integer" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{7448FB0A-950E-4151-A08B-BED99BD90CE3}" name="WriteMask : Integer" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{CA252D64-20D1-4AC6-8BA2-794CFCA62249}" name="Front/StencilFailOp : String" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{0DF8B02F-8111-4D96-BB20-9CF271AD63E5}" name="Front/DepthFailOp : String" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{AC4C2586-FF4C-4272-8684-E10A458DFE15}" name="Front/DepthPassOp : String" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{21A77A00-EDEF-4017-8FF2-7A82ADE45239}" name="Front/CompareOp : String" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{FBB37997-047B-4E05-8960-C1E987A1715B}" name="Back/StencilFailOp : String" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{CCFECA1E-A5F6-4D1F-B83B-835D2B05BD8E}" name="Back/DepthFailOp : String" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{52E4A2AC-39E4-4843-8EA9-641EF61B3B25}" name="Back/DepthPassOp : String" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{E4D1B9CA-9412-4568-A997-3A3255678E15}" name="Back/CompareOp : String" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}" name="표1_4" displayName="표1_4" ref="A2:L14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:L14" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{BBAD236A-8B4B-4627-A2B9-FA9317E19526}" name="UUID : String" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A2127A61-8E8C-456F-8014-E2E96FCD8AB5}" name="FillMode : String" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{D67EEE99-B7AD-40DA-A80D-CB04B63086E0}" name="CullMode : String" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D0CAED09-45DF-46FF-A47F-955FF2654EA6}" name="ConstantFactor : Float" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{625893B3-0498-410E-B7E0-9FB7F145EDA3}" name="SlopeFactor : Float" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E8EE5C56-B229-40B0-97B4-B781AFBEB70D}" name="Clamp : Float" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{68D1CA19-F78D-45D7-A44B-12CB38788880}" name="FrontCCW : Bool" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{39A188CD-16E1-47B6-9FB9-7369E475AA88}" name="DepthClampEnabled : Bool" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{35836981-5498-429F-BEBC-9D178E1206FC}" name="ScissorTestEnabled : Bool" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{219C93DA-7214-4D14-9DEA-69A45F574DF8}" name="MultiSampleEnabled : Bool" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{E44DB2DB-A731-4AB8-A172-C2828681A884}" name="AntiAliasedLineEnabled : Bool" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{72B290AF-C529-4D2E-9A31-DEDF28C2D640}" name="ConservativeRasterization : Bool" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{56F3C449-62BE-4D63-91BB-0D835767B3B7}" name="표1_6" displayName="표1_6" ref="A2:N22" totalsRowShown="0">
+  <autoFilter ref="A2:N22" xr:uid="{56F3C449-62BE-4D63-91BB-0D835767B3B7}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{852EDE3E-971B-488B-BF48-4F001FC33C9C}" name="UUID : String"/>
+    <tableColumn id="2" xr3:uid="{06F4094C-8E0E-45F2-B991-B6D69CDB39C3}" name="AlphaToCoverageEnable : Bool"/>
+    <tableColumn id="3" xr3:uid="{69D1C4B6-FD8A-4232-8BB3-2CE759D26C0A}" name="IndependentBlendEnable : Bool"/>
+    <tableColumn id="4" xr3:uid="{355C13F0-074A-44F5-B4E6-EC01B6F927BC}" name="BlendEnable : Bool"/>
+    <tableColumn id="5" xr3:uid="{57445210-F067-4A30-B2BE-B0B056C8F37C}" name="SrcBlend : String"/>
+    <tableColumn id="6" xr3:uid="{2401EAB0-4193-4896-BC23-9367128DD2B7}" name="DestBlend : String"/>
+    <tableColumn id="7" xr3:uid="{EE731276-7ABC-42DC-B86E-8C629425F83E}" name="BlendOp : String"/>
+    <tableColumn id="8" xr3:uid="{83EFB87E-B786-4F5E-A953-9646CF19A2ED}" name="SrcBlendAlpha : String"/>
+    <tableColumn id="9" xr3:uid="{D52D23C5-B244-4EA8-B1AB-0BBBB74E6D47}" name="DestBlendAlpha : String"/>
+    <tableColumn id="10" xr3:uid="{26CFE510-5F61-422C-A3C1-F356FDC62861}" name="BlendOpAlpha : String"/>
+    <tableColumn id="11" xr3:uid="{DB4128E7-8FAA-4FAA-86C2-3ECA0B59D62C}" name="RenderTargetWriteMask : Integer"/>
+    <tableColumn id="12" xr3:uid="{556CD05E-CAAE-4F2D-8542-981DF18E6DB0}" name="BlendFactor : Float"/>
+    <tableColumn id="13" xr3:uid="{3411FC8C-2F74-454D-BCC3-C66EB53E1E86}" name="SampleMask : Integer"/>
+    <tableColumn id="14" xr3:uid="{0313825E-F3BA-4968-81AD-424C8ABB3DA3}" name="BlendFactorDynamic : Bool"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +634,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +740,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,13 +890,816 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDAF6D-248C-4551-840F-371628ACD4EB}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="7" width="35.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA63099-1F0A-4849-9035-F8CF492A6EAE}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="15" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E740B007-AAF4-4B38-ACEC-BEDD36CCFBEC}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFB6A8D-593B-4A1A-9310-109418352490}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="14" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5796D4-384A-4513-8345-92CC60385FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7DD94D-22E1-4874-A717-B51C644211C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-1000-000000000000</t>
-  </si>
-  <si>
     <t>ShaderProgram : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,14 +316,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TriangleList</t>
+  </si>
+  <si>
+    <t>../ShaderProgramTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>00000000-0000-0000-2000-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TriangleList</t>
-  </si>
-  <si>
-    <t>../ShaderProgramTable.json</t>
+    <t>00000000-0000-0000-3000-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -950,19 +951,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +980,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,41 +991,41 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1054,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1072,96 +1073,96 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1365,7 +1366,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1376,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1391,78 +1392,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1643,56 +1644,56 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>67</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7DD94D-22E1-4874-A717-B51C644211C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139A57E-1F9C-4452-B23D-0C525E92A7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1755" yWindow="4035" windowWidth="25410" windowHeight="11385" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -980,7 +980,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139A57E-1F9C-4452-B23D-0C525E92A7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA7896D-E7F4-4757-AE26-200BD2CB77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="4035" windowWidth="25410" windowHeight="11385" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="2415" yWindow="2535" windowWidth="25410" windowHeight="11385" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>../PipelineStateTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,49 @@
   </si>
   <si>
     <t>00000000-0000-0000-3000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-4000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-5000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaBlend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvSrcAlpha</t>
+  </si>
+  <si>
+    <t>SrcAlpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +428,16 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -527,45 +579,45 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}" name="표1_5" displayName="표1_5" ref="A2:O14" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}" name="표1_5" displayName="표1_5" ref="A2:O14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A2:O14" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{69AECB34-9285-4C9C-A6A5-7187F80EDC6C}" name="UUID : String" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{639E1F39-A409-4C56-A4D3-560A783D00F2}" name="DepthEnable : Bool" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{538777F6-C1D4-47F6-829B-ED423921FE43}" name="WriteEnabled : Bool" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{C1628ACE-49F2-4E18-B79E-30EA8CF48F42}" name="CompareOp : String" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{08350EA4-84C5-4749-A265-5DF7AB8E647C}" name="StencilEnable : Bool" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{BF3FB076-37A7-4DA1-A555-85554A532095}" name="ReadMask : Integer" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{7448FB0A-950E-4151-A08B-BED99BD90CE3}" name="WriteMask : Integer" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{CA252D64-20D1-4AC6-8BA2-794CFCA62249}" name="Front/StencilFailOp : String" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{0DF8B02F-8111-4D96-BB20-9CF271AD63E5}" name="Front/DepthFailOp : String" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{AC4C2586-FF4C-4272-8684-E10A458DFE15}" name="Front/DepthPassOp : String" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{21A77A00-EDEF-4017-8FF2-7A82ADE45239}" name="Front/CompareOp : String" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{FBB37997-047B-4E05-8960-C1E987A1715B}" name="Back/StencilFailOp : String" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{CCFECA1E-A5F6-4D1F-B83B-835D2B05BD8E}" name="Back/DepthFailOp : String" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{52E4A2AC-39E4-4843-8EA9-641EF61B3B25}" name="Back/DepthPassOp : String" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{E4D1B9CA-9412-4568-A997-3A3255678E15}" name="Back/CompareOp : String" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{69AECB34-9285-4C9C-A6A5-7187F80EDC6C}" name="UUID : String" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{639E1F39-A409-4C56-A4D3-560A783D00F2}" name="DepthEnable : Bool" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{538777F6-C1D4-47F6-829B-ED423921FE43}" name="WriteEnabled : Bool" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{C1628ACE-49F2-4E18-B79E-30EA8CF48F42}" name="CompareOp : String" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{08350EA4-84C5-4749-A265-5DF7AB8E647C}" name="StencilEnable : Bool" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{BF3FB076-37A7-4DA1-A555-85554A532095}" name="ReadMask : Integer" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{7448FB0A-950E-4151-A08B-BED99BD90CE3}" name="WriteMask : Integer" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{CA252D64-20D1-4AC6-8BA2-794CFCA62249}" name="Front/StencilFailOp : String" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{0DF8B02F-8111-4D96-BB20-9CF271AD63E5}" name="Front/DepthFailOp : String" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{AC4C2586-FF4C-4272-8684-E10A458DFE15}" name="Front/DepthPassOp : String" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{21A77A00-EDEF-4017-8FF2-7A82ADE45239}" name="Front/CompareOp : String" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{FBB37997-047B-4E05-8960-C1E987A1715B}" name="Back/StencilFailOp : String" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{CCFECA1E-A5F6-4D1F-B83B-835D2B05BD8E}" name="Back/DepthFailOp : String" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{52E4A2AC-39E4-4843-8EA9-641EF61B3B25}" name="Back/DepthPassOp : String" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{E4D1B9CA-9412-4568-A997-3A3255678E15}" name="Back/CompareOp : String" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}" name="표1_4" displayName="표1_4" ref="A2:L14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}" name="표1_4" displayName="표1_4" ref="A2:L14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:L14" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BBAD236A-8B4B-4627-A2B9-FA9317E19526}" name="UUID : String" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A2127A61-8E8C-456F-8014-E2E96FCD8AB5}" name="FillMode : String" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D67EEE99-B7AD-40DA-A80D-CB04B63086E0}" name="CullMode : String" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D0CAED09-45DF-46FF-A47F-955FF2654EA6}" name="ConstantFactor : Float" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{625893B3-0498-410E-B7E0-9FB7F145EDA3}" name="SlopeFactor : Float" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E8EE5C56-B229-40B0-97B4-B781AFBEB70D}" name="Clamp : Float" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{68D1CA19-F78D-45D7-A44B-12CB38788880}" name="FrontCCW : Bool" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{39A188CD-16E1-47B6-9FB9-7369E475AA88}" name="DepthClampEnabled : Bool" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{35836981-5498-429F-BEBC-9D178E1206FC}" name="ScissorTestEnabled : Bool" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{219C93DA-7214-4D14-9DEA-69A45F574DF8}" name="MultiSampleEnabled : Bool" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{E44DB2DB-A731-4AB8-A172-C2828681A884}" name="AntiAliasedLineEnabled : Bool" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{72B290AF-C529-4D2E-9A31-DEDF28C2D640}" name="ConservativeRasterization : Bool" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BBAD236A-8B4B-4627-A2B9-FA9317E19526}" name="UUID : String" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A2127A61-8E8C-456F-8014-E2E96FCD8AB5}" name="FillMode : String" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{D67EEE99-B7AD-40DA-A80D-CB04B63086E0}" name="CullMode : String" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{D0CAED09-45DF-46FF-A47F-955FF2654EA6}" name="ConstantFactor : Float" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{625893B3-0498-410E-B7E0-9FB7F145EDA3}" name="SlopeFactor : Float" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E8EE5C56-B229-40B0-97B4-B781AFBEB70D}" name="Clamp : Float" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{68D1CA19-F78D-45D7-A44B-12CB38788880}" name="FrontCCW : Bool" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{39A188CD-16E1-47B6-9FB9-7369E475AA88}" name="DepthClampEnabled : Bool" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{35836981-5498-429F-BEBC-9D178E1206FC}" name="ScissorTestEnabled : Bool" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{219C93DA-7214-4D14-9DEA-69A45F574DF8}" name="MultiSampleEnabled : Bool" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{E44DB2DB-A731-4AB8-A172-C2828681A884}" name="AntiAliasedLineEnabled : Bool" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{72B290AF-C529-4D2E-9A31-DEDF28C2D640}" name="ConservativeRasterization : Bool" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,9 +628,9 @@
   <autoFilter ref="A2:N22" xr:uid="{56F3C449-62BE-4D63-91BB-0D835767B3B7}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{852EDE3E-971B-488B-BF48-4F001FC33C9C}" name="UUID : String"/>
-    <tableColumn id="2" xr3:uid="{06F4094C-8E0E-45F2-B991-B6D69CDB39C3}" name="AlphaToCoverageEnable : Bool"/>
-    <tableColumn id="3" xr3:uid="{69D1C4B6-FD8A-4232-8BB3-2CE759D26C0A}" name="IndependentBlendEnable : Bool"/>
-    <tableColumn id="4" xr3:uid="{355C13F0-074A-44F5-B4E6-EC01B6F927BC}" name="BlendEnable : Bool"/>
+    <tableColumn id="2" xr3:uid="{06F4094C-8E0E-45F2-B991-B6D69CDB39C3}" name="AlphaToCoverageEnable : Bool" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{69D1C4B6-FD8A-4232-8BB3-2CE759D26C0A}" name="IndependentBlendEnable : Bool" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{355C13F0-074A-44F5-B4E6-EC01B6F927BC}" name="BlendEnable : Bool" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{57445210-F067-4A30-B2BE-B0B056C8F37C}" name="SrcBlend : String"/>
     <tableColumn id="6" xr3:uid="{2401EAB0-4193-4896-BC23-9367128DD2B7}" name="DestBlend : String"/>
     <tableColumn id="7" xr3:uid="{EE731276-7ABC-42DC-B86E-8C629425F83E}" name="BlendOp : String"/>
@@ -891,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -966,6 +1018,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -977,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDAF6D-248C-4551-840F-371628ACD4EB}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1026,6 +1101,17 @@
       </c>
       <c r="C3" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1631,15 +1717,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFB6A8D-593B-4A1A-9310-109418352490}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="14" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1651,13 +1739,13 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E2" t="s">
@@ -1694,6 +1782,71 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA7896D-E7F4-4757-AE26-200BD2CB77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECFFA4-A8EC-4D01-8192-F74EC29981A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2535" windowWidth="25410" windowHeight="11385" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
   <si>
     <t>../PipelineStateTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,204 +173,243 @@
     <t>Solid</t>
   </si>
   <si>
+    <t>0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../DepthStencilStateTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepthEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteEnabled : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompareOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StencilEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadMask : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteMask : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front/StencilFailOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front/DepthFailOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front/DepthPassOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front/CompareOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back/StencilFailOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back/DepthFailOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back/DepthPassOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back/CompareOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../BlendStateTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaToCoverageEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndependentBlendEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendEnable : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SrcBlend : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestBlend : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendOp : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SrcBlendAlpha : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestBlendAlpha : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendOpAlpha : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderTargetWriteMask : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendFactor : Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleMask : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlendFactorDynamic : Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriangleList</t>
+  </si>
+  <si>
+    <t>../ShaderProgramTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-2000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-3000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-4000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-5000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaBlend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvSrcAlpha</t>
+  </si>
+  <si>
+    <t>SrcAlpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-7000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-1000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlwaysPass</t>
+  </si>
+  <si>
+    <t>NoCull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../DepthStencilStateTable.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepthEnable : Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WriteEnabled : Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompareOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StencilEnable : Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadMask : Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WriteMask : Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front/StencilFailOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front/DepthFailOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front/DepthPassOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front/CompareOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back/StencilFailOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back/DepthFailOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back/DepthPassOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back/CompareOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Less</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../BlendStateTable.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlphaToCoverageEnable : Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndependentBlendEnable : Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlendEnable : Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SrcBlend : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestBlend : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlendOp : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SrcBlendAlpha : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestBlendAlpha : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlendOpAlpha : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RenderTargetWriteMask : Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlendFactor : Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SampleMask : Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlendFactorDynamic : Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkyBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriangleList</t>
-  </si>
-  <si>
-    <t>../ShaderProgramTable.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-2000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-3000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-4000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-5000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid Debug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlphaBlend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvSrcAlpha</t>
-  </si>
-  <si>
-    <t>SrcAlpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1003,16 +1042,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1020,25 +1059,48 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1052,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDAF6D-248C-4551-840F-371628ACD4EB}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1128,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,24 +1156,35 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1201,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1213,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1162,46 +1235,46 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1209,64 +1282,94 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1452,7 +1555,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1522,49 +1625,73 @@
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1719,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFB6A8D-593B-4A1A-9310-109418352490}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1732,7 +1859,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1740,43 +1867,43 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>59</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>62</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>64</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>65</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>66</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1784,31 +1911,31 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>77</v>
       </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
       <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
       </c>
       <c r="K3">
         <v>15</v>
@@ -1816,34 +1943,34 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4">
         <v>15</v>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECFFA4-A8EC-4D01-8192-F74EC29981A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F74DB1-AFB8-40FF-8F4B-ACD00009D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-7000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00000000-0000-0000-1000-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,6 +406,10 @@
   </si>
   <si>
     <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-6000-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +985,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1045,13 +1045,13 @@
         <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1068,13 +1068,13 @@
         <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="I4" t="s">
         <v>79</v>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1181,10 +1181,10 @@
         <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1294,10 +1294,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>52</v>
@@ -1309,7 +1309,7 @@
         <v>52</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>52</v>
@@ -1321,12 +1321,12 @@
         <v>52</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -1335,7 +1335,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
@@ -1625,7 +1625,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -1657,13 +1657,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F74DB1-AFB8-40FF-8F4B-ACD00009D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DEEE8F-A269-4FC8-9756-267B70EFFD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="25410" windowHeight="11385" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>../PipelineStateTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,18 @@
   </si>
   <si>
     <t>00000000-0000-0000-6000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deferred Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-7000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-8000-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,6 +1115,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDAF6D-248C-4551-840F-371628ACD4EB}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1185,6 +1220,17 @@
       </c>
       <c r="C5" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DEEE8F-A269-4FC8-9756-267B70EFFD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF137A-A062-49E2-86BD-2A41BC5F2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="25410" windowHeight="11385" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
   <si>
     <t>../PipelineStateTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,22 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-2000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-3000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-4000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-5000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grid Debug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-1000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NoDepth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,19 +389,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-6000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Deferred Light</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-7000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-8000-000000000000</t>
+    <t>IBL_Irradiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBL_Radiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBL_BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0002-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0004-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0001-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0007-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0003-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0005-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0006-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0008-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0009-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0010-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0011-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0012-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,8 +642,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}" name="표2" displayName="표2" ref="A2:G6" totalsRowShown="0">
-  <autoFilter ref="A2:G6" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}" name="표2" displayName="표2" ref="A2:G12" totalsRowShown="0">
+  <autoFilter ref="A2:G12" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E179A3F3-F267-42A3-8D7C-10D95D6E7C88}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{37C18820-78B7-454B-9AA8-AB44AD1FAFF0}" name="Vertex : String"/>
@@ -994,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1057,13 +1085,13 @@
         <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1071,33 +1099,33 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1117,24 +1145,93 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1149,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDAF6D-248C-4551-840F-371628ACD4EB}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1194,43 +1291,76 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1458,10 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>50</v>
@@ -1340,10 +1470,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>52</v>
@@ -1355,7 +1485,7 @@
         <v>52</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>52</v>
@@ -1367,12 +1497,12 @@
         <v>52</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -1381,7 +1511,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
@@ -1671,7 +1801,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -1686,7 +1816,7 @@
         <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>34</v>
@@ -1703,13 +1833,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -1957,31 +2087,31 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K3">
         <v>15</v>
@@ -1989,34 +2119,34 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K4">
         <v>15</v>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF137A-A062-49E2-86BD-2A41BC5F2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD9C5ED-C980-4842-9276-39394BB68477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="114">
   <si>
     <t>../PipelineStateTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,43 @@
   <si>
     <t>00000000-0000-0000-0012-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0014-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StencilRef : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LessEqual</t>
+  </si>
+  <si>
+    <t>DepthLessEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Replace</t>
   </si>
 </sst>
 </file>
@@ -507,7 +544,10 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -658,45 +698,46 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}" name="표1_5" displayName="표1_5" ref="A2:O14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A2:O14" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{69AECB34-9285-4C9C-A6A5-7187F80EDC6C}" name="UUID : String" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{639E1F39-A409-4C56-A4D3-560A783D00F2}" name="DepthEnable : Bool" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{538777F6-C1D4-47F6-829B-ED423921FE43}" name="WriteEnabled : Bool" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{C1628ACE-49F2-4E18-B79E-30EA8CF48F42}" name="CompareOp : String" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{08350EA4-84C5-4749-A265-5DF7AB8E647C}" name="StencilEnable : Bool" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{BF3FB076-37A7-4DA1-A555-85554A532095}" name="ReadMask : Integer" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{7448FB0A-950E-4151-A08B-BED99BD90CE3}" name="WriteMask : Integer" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{CA252D64-20D1-4AC6-8BA2-794CFCA62249}" name="Front/StencilFailOp : String" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{0DF8B02F-8111-4D96-BB20-9CF271AD63E5}" name="Front/DepthFailOp : String" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{AC4C2586-FF4C-4272-8684-E10A458DFE15}" name="Front/DepthPassOp : String" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{21A77A00-EDEF-4017-8FF2-7A82ADE45239}" name="Front/CompareOp : String" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{FBB37997-047B-4E05-8960-C1E987A1715B}" name="Back/StencilFailOp : String" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{CCFECA1E-A5F6-4D1F-B83B-835D2B05BD8E}" name="Back/DepthFailOp : String" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{52E4A2AC-39E4-4843-8EA9-641EF61B3B25}" name="Back/DepthPassOp : String" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{E4D1B9CA-9412-4568-A997-3A3255678E15}" name="Back/CompareOp : String" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}" name="표1_5" displayName="표1_5" ref="A2:P14" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A2:P14" xr:uid="{AE02105B-3565-413A-9C29-4D8D1B61E2E0}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{69AECB34-9285-4C9C-A6A5-7187F80EDC6C}" name="UUID : String" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{639E1F39-A409-4C56-A4D3-560A783D00F2}" name="DepthEnable : Bool" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{538777F6-C1D4-47F6-829B-ED423921FE43}" name="WriteEnabled : Bool" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{C1628ACE-49F2-4E18-B79E-30EA8CF48F42}" name="CompareOp : String" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{08350EA4-84C5-4749-A265-5DF7AB8E647C}" name="StencilEnable : Bool" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{BF3FB076-37A7-4DA1-A555-85554A532095}" name="ReadMask : Integer" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{C416B725-025C-4F4E-AACB-9CEE518A47E0}" name="WriteMask : Integer" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{7448FB0A-950E-4151-A08B-BED99BD90CE3}" name="StencilRef : Integer" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{CA252D64-20D1-4AC6-8BA2-794CFCA62249}" name="Front/StencilFailOp : String" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{0DF8B02F-8111-4D96-BB20-9CF271AD63E5}" name="Front/DepthFailOp : String" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{AC4C2586-FF4C-4272-8684-E10A458DFE15}" name="Front/DepthPassOp : String" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{21A77A00-EDEF-4017-8FF2-7A82ADE45239}" name="Front/CompareOp : String" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{FBB37997-047B-4E05-8960-C1E987A1715B}" name="Back/StencilFailOp : String" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{CCFECA1E-A5F6-4D1F-B83B-835D2B05BD8E}" name="Back/DepthFailOp : String" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{52E4A2AC-39E4-4843-8EA9-641EF61B3B25}" name="Back/DepthPassOp : String" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{E4D1B9CA-9412-4568-A997-3A3255678E15}" name="Back/CompareOp : String" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}" name="표1_4" displayName="표1_4" ref="A2:L14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}" name="표1_4" displayName="표1_4" ref="A2:L14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:L14" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BBAD236A-8B4B-4627-A2B9-FA9317E19526}" name="UUID : String" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A2127A61-8E8C-456F-8014-E2E96FCD8AB5}" name="FillMode : String" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{D67EEE99-B7AD-40DA-A80D-CB04B63086E0}" name="CullMode : String" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{D0CAED09-45DF-46FF-A47F-955FF2654EA6}" name="ConstantFactor : Float" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{625893B3-0498-410E-B7E0-9FB7F145EDA3}" name="SlopeFactor : Float" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{E8EE5C56-B229-40B0-97B4-B781AFBEB70D}" name="Clamp : Float" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{68D1CA19-F78D-45D7-A44B-12CB38788880}" name="FrontCCW : Bool" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{39A188CD-16E1-47B6-9FB9-7369E475AA88}" name="DepthClampEnabled : Bool" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{35836981-5498-429F-BEBC-9D178E1206FC}" name="ScissorTestEnabled : Bool" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{219C93DA-7214-4D14-9DEA-69A45F574DF8}" name="MultiSampleEnabled : Bool" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{E44DB2DB-A731-4AB8-A172-C2828681A884}" name="AntiAliasedLineEnabled : Bool" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{72B290AF-C529-4D2E-9A31-DEDF28C2D640}" name="ConservativeRasterization : Bool" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BBAD236A-8B4B-4627-A2B9-FA9317E19526}" name="UUID : String" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A2127A61-8E8C-456F-8014-E2E96FCD8AB5}" name="FillMode : String" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D67EEE99-B7AD-40DA-A80D-CB04B63086E0}" name="CullMode : String" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D0CAED09-45DF-46FF-A47F-955FF2654EA6}" name="ConstantFactor : Float" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{625893B3-0498-410E-B7E0-9FB7F145EDA3}" name="SlopeFactor : Float" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{E8EE5C56-B229-40B0-97B4-B781AFBEB70D}" name="Clamp : Float" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{68D1CA19-F78D-45D7-A44B-12CB38788880}" name="FrontCCW : Bool" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{39A188CD-16E1-47B6-9FB9-7369E475AA88}" name="DepthClampEnabled : Bool" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{35836981-5498-429F-BEBC-9D178E1206FC}" name="ScissorTestEnabled : Bool" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{219C93DA-7214-4D14-9DEA-69A45F574DF8}" name="MultiSampleEnabled : Bool" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{E44DB2DB-A731-4AB8-A172-C2828681A884}" name="AntiAliasedLineEnabled : Bool" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{72B290AF-C529-4D2E-9A31-DEDF28C2D640}" name="ConservativeRasterization : Bool" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -707,9 +748,9 @@
   <autoFilter ref="A2:N22" xr:uid="{56F3C449-62BE-4D63-91BB-0D835767B3B7}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{852EDE3E-971B-488B-BF48-4F001FC33C9C}" name="UUID : String"/>
-    <tableColumn id="2" xr3:uid="{06F4094C-8E0E-45F2-B991-B6D69CDB39C3}" name="AlphaToCoverageEnable : Bool" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{69D1C4B6-FD8A-4232-8BB3-2CE759D26C0A}" name="IndependentBlendEnable : Bool" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{355C13F0-074A-44F5-B4E6-EC01B6F927BC}" name="BlendEnable : Bool" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{06F4094C-8E0E-45F2-B991-B6D69CDB39C3}" name="AlphaToCoverageEnable : Bool" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{69D1C4B6-FD8A-4232-8BB3-2CE759D26C0A}" name="IndependentBlendEnable : Bool" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{355C13F0-074A-44F5-B4E6-EC01B6F927BC}" name="BlendEnable : Bool" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{57445210-F067-4A30-B2BE-B0B056C8F37C}" name="SrcBlend : String"/>
     <tableColumn id="6" xr3:uid="{2401EAB0-4193-4896-BC23-9367128DD2B7}" name="DestBlend : String"/>
     <tableColumn id="7" xr3:uid="{EE731276-7ABC-42DC-B86E-8C629425F83E}" name="BlendOp : String"/>
@@ -1022,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1107,11 +1148,11 @@
       <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>84</v>
@@ -1131,10 +1172,10 @@
         <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1154,16 +1195,16 @@
         <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1232,6 +1273,29 @@
         <v>84</v>
       </c>
       <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1246,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDAF6D-248C-4551-840F-371628ACD4EB}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1363,6 +1427,17 @@
         <v>103</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,20 +1449,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA63099-1F0A-4849-9035-F8CF492A6EAE}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="15" width="15.25" customWidth="1"/>
+    <col min="6" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="16" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1405,8 +1480,9 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1429,31 +1505,34 @@
         <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1555,7 @@
         <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>52</v>
@@ -1485,11 +1564,11 @@
         <v>52</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="M3" s="1" t="s">
         <v>52</v>
       </c>
@@ -1497,10 +1576,13 @@
         <v>52</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -1523,7 +1605,7 @@
         <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>52</v>
@@ -1532,11 +1614,11 @@
         <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="M4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1544,61 +1626,163 @@
         <v>52</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1614,8 +1798,9 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1631,8 +1816,9 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1648,8 +1834,9 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1665,8 +1852,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1682,8 +1870,9 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1699,8 +1888,9 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1716,6 +1906,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1731,7 +1922,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1813,7 +2004,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>76</v>
@@ -1851,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>34</v>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD9C5ED-C980-4842-9276-39394BB68477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42DE01A-3991-4A52-8F01-361FB053FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="120">
   <si>
     <t>../PipelineStateTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,30 @@
   </si>
   <si>
     <t>Replace</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0015-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0016-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0017-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToneMapping_Reinhard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToneMapping_Filmic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToneMapping_Uncharted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -664,8 +688,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}" name="표1" displayName="표1" ref="A2:I12" totalsRowShown="0">
-  <autoFilter ref="A2:I12" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}" name="표1" displayName="표1" ref="A2:I13" totalsRowShown="0">
+  <autoFilter ref="A2:I13" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5C9F5DAC-CB30-40DD-9212-D854B9BBC39F}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{57D9BF7E-4489-483A-ACDD-F154D61BC663}" name="ShaderProgram : String"/>
@@ -707,37 +731,37 @@
     <tableColumn id="4" xr3:uid="{C1628ACE-49F2-4E18-B79E-30EA8CF48F42}" name="CompareOp : String" dataDxfId="29"/>
     <tableColumn id="5" xr3:uid="{08350EA4-84C5-4749-A265-5DF7AB8E647C}" name="StencilEnable : Bool" dataDxfId="28"/>
     <tableColumn id="6" xr3:uid="{BF3FB076-37A7-4DA1-A555-85554A532095}" name="ReadMask : Integer" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{C416B725-025C-4F4E-AACB-9CEE518A47E0}" name="WriteMask : Integer" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{7448FB0A-950E-4151-A08B-BED99BD90CE3}" name="StencilRef : Integer" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{CA252D64-20D1-4AC6-8BA2-794CFCA62249}" name="Front/StencilFailOp : String" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{0DF8B02F-8111-4D96-BB20-9CF271AD63E5}" name="Front/DepthFailOp : String" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{AC4C2586-FF4C-4272-8684-E10A458DFE15}" name="Front/DepthPassOp : String" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{21A77A00-EDEF-4017-8FF2-7A82ADE45239}" name="Front/CompareOp : String" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{FBB37997-047B-4E05-8960-C1E987A1715B}" name="Back/StencilFailOp : String" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{CCFECA1E-A5F6-4D1F-B83B-835D2B05BD8E}" name="Back/DepthFailOp : String" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{52E4A2AC-39E4-4843-8EA9-641EF61B3B25}" name="Back/DepthPassOp : String" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{E4D1B9CA-9412-4568-A997-3A3255678E15}" name="Back/CompareOp : String" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{C416B725-025C-4F4E-AACB-9CEE518A47E0}" name="WriteMask : Integer" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{7448FB0A-950E-4151-A08B-BED99BD90CE3}" name="StencilRef : Integer" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{CA252D64-20D1-4AC6-8BA2-794CFCA62249}" name="Front/StencilFailOp : String" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{0DF8B02F-8111-4D96-BB20-9CF271AD63E5}" name="Front/DepthFailOp : String" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{AC4C2586-FF4C-4272-8684-E10A458DFE15}" name="Front/DepthPassOp : String" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{21A77A00-EDEF-4017-8FF2-7A82ADE45239}" name="Front/CompareOp : String" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{FBB37997-047B-4E05-8960-C1E987A1715B}" name="Back/StencilFailOp : String" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{CCFECA1E-A5F6-4D1F-B83B-835D2B05BD8E}" name="Back/DepthFailOp : String" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{52E4A2AC-39E4-4843-8EA9-641EF61B3B25}" name="Back/DepthPassOp : String" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{E4D1B9CA-9412-4568-A997-3A3255678E15}" name="Back/CompareOp : String" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}" name="표1_4" displayName="표1_4" ref="A2:L14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}" name="표1_4" displayName="표1_4" ref="A2:L14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:L14" xr:uid="{B23AE490-8DD4-4921-935C-F1FF9E4D3CAF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BBAD236A-8B4B-4627-A2B9-FA9317E19526}" name="UUID : String" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A2127A61-8E8C-456F-8014-E2E96FCD8AB5}" name="FillMode : String" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{D67EEE99-B7AD-40DA-A80D-CB04B63086E0}" name="CullMode : String" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D0CAED09-45DF-46FF-A47F-955FF2654EA6}" name="ConstantFactor : Float" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{625893B3-0498-410E-B7E0-9FB7F145EDA3}" name="SlopeFactor : Float" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{E8EE5C56-B229-40B0-97B4-B781AFBEB70D}" name="Clamp : Float" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{68D1CA19-F78D-45D7-A44B-12CB38788880}" name="FrontCCW : Bool" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{39A188CD-16E1-47B6-9FB9-7369E475AA88}" name="DepthClampEnabled : Bool" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{35836981-5498-429F-BEBC-9D178E1206FC}" name="ScissorTestEnabled : Bool" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{219C93DA-7214-4D14-9DEA-69A45F574DF8}" name="MultiSampleEnabled : Bool" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{E44DB2DB-A731-4AB8-A172-C2828681A884}" name="AntiAliasedLineEnabled : Bool" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{72B290AF-C529-4D2E-9A31-DEDF28C2D640}" name="ConservativeRasterization : Bool" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{BBAD236A-8B4B-4627-A2B9-FA9317E19526}" name="UUID : String" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A2127A61-8E8C-456F-8014-E2E96FCD8AB5}" name="FillMode : String" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{D67EEE99-B7AD-40DA-A80D-CB04B63086E0}" name="CullMode : String" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{D0CAED09-45DF-46FF-A47F-955FF2654EA6}" name="ConstantFactor : Float" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{625893B3-0498-410E-B7E0-9FB7F145EDA3}" name="SlopeFactor : Float" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E8EE5C56-B229-40B0-97B4-B781AFBEB70D}" name="Clamp : Float" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{68D1CA19-F78D-45D7-A44B-12CB38788880}" name="FrontCCW : Bool" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{39A188CD-16E1-47B6-9FB9-7369E475AA88}" name="DepthClampEnabled : Bool" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{35836981-5498-429F-BEBC-9D178E1206FC}" name="ScissorTestEnabled : Bool" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{219C93DA-7214-4D14-9DEA-69A45F574DF8}" name="MultiSampleEnabled : Bool" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{E44DB2DB-A731-4AB8-A172-C2828681A884}" name="AntiAliasedLineEnabled : Bool" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{72B290AF-C529-4D2E-9A31-DEDF28C2D640}" name="ConservativeRasterization : Bool" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,9 +772,9 @@
   <autoFilter ref="A2:N22" xr:uid="{56F3C449-62BE-4D63-91BB-0D835767B3B7}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{852EDE3E-971B-488B-BF48-4F001FC33C9C}" name="UUID : String"/>
-    <tableColumn id="2" xr3:uid="{06F4094C-8E0E-45F2-B991-B6D69CDB39C3}" name="AlphaToCoverageEnable : Bool" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{69D1C4B6-FD8A-4232-8BB3-2CE759D26C0A}" name="IndependentBlendEnable : Bool" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{355C13F0-074A-44F5-B4E6-EC01B6F927BC}" name="BlendEnable : Bool" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{06F4094C-8E0E-45F2-B991-B6D69CDB39C3}" name="AlphaToCoverageEnable : Bool" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{69D1C4B6-FD8A-4232-8BB3-2CE759D26C0A}" name="IndependentBlendEnable : Bool" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{355C13F0-074A-44F5-B4E6-EC01B6F927BC}" name="BlendEnable : Bool" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{57445210-F067-4A30-B2BE-B0B056C8F37C}" name="SrcBlend : String"/>
     <tableColumn id="6" xr3:uid="{2401EAB0-4193-4896-BC23-9367128DD2B7}" name="DestBlend : String"/>
     <tableColumn id="7" xr3:uid="{EE731276-7ABC-42DC-B86E-8C629425F83E}" name="BlendOp : String"/>
@@ -1063,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,6 +1323,75 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDAF6D-248C-4551-840F-371628ACD4EB}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1436,6 +1529,39 @@
       </c>
       <c r="C10" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA63099-1F0A-4849-9035-F8CF492A6EAE}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42DE01A-3991-4A52-8F01-361FB053FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCC8EFB-D26F-4A15-AC39-797404E05A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/bin/graphics/table/PipelineStateTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineStateTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCC8EFB-D26F-4A15-AC39-797404E05A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1195B7BE-8338-4BB9-8F54-B44848231D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="2805" yWindow="2805" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineState" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="128">
   <si>
     <t>../PipelineStateTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkyBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrimitiveTopology : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkyBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TriangleList</t>
   </si>
   <si>
@@ -511,6 +503,44 @@
   </si>
   <si>
     <t>ToneMapping_Uncharted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox-Cubed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skybox-Procedural</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0018-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0019-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skybox-Procedural</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skybox-Panoramic</t>
+  </si>
+  <si>
+    <t>Skybox-Panoramic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0020-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0021-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skybox-Procedural</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +718,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}" name="표1" displayName="표1" ref="A2:I13" totalsRowShown="0">
-  <autoFilter ref="A2:I13" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}" name="표1" displayName="표1" ref="A2:I15" totalsRowShown="0">
+  <autoFilter ref="A2:I15" xr:uid="{45E44F45-0DF3-48E0-BF83-175C874B331A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5C9F5DAC-CB30-40DD-9212-D854B9BBC39F}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{57D9BF7E-4489-483A-ACDD-F154D61BC663}" name="ShaderProgram : String"/>
@@ -706,8 +736,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}" name="표2" displayName="표2" ref="A2:G12" totalsRowShown="0">
-  <autoFilter ref="A2:G12" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}" name="표2" displayName="표2" ref="A2:G15" totalsRowShown="0">
+  <autoFilter ref="A2:G15" xr:uid="{ACB5A5A8-FBF7-40DA-A057-A7CFFAE5E7F8}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E179A3F3-F267-42A3-8D7C-10D95D6E7C88}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{37C18820-78B7-454B-9AA8-AB44AD1FAFF0}" name="Vertex : String"/>
@@ -1087,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1115,16 +1145,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1141,255 +1171,301 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
         <v>119</v>
       </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1403,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDAF6D-248C-4551-840F-371628ACD4EB}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1417,151 +1493,173 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1688,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1610,302 +1708,302 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -2058,7 +2156,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2074,116 +2172,116 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2352,83 +2450,83 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>59</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>63</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>65</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
       <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
         <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s">
-        <v>73</v>
       </c>
       <c r="K3">
         <v>15</v>
@@ -2436,34 +2534,34 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
         <v>71</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>73</v>
       </c>
       <c r="K4">
         <v>15</v>
